--- a/Bases/dummies_countries_cds.xlsx
+++ b/Bases/dummies_countries_cds.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">t0</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t xml:space="preserve">na.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total.Affected</t>
   </si>
 </sst>
 </file>
@@ -386,6 +389,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -400,6 +406,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>150060</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -414,6 +423,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -428,6 +440,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>31000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -442,6 +457,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>116000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -456,6 +474,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>200080</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -470,6 +491,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>49506</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -484,6 +508,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>12870</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -498,6 +525,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>190000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -512,6 +542,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>1500015</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -526,6 +559,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>1150900</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -540,6 +576,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -554,6 +593,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>680000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -568,6 +610,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -582,6 +627,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>74938</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -596,6 +644,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>157000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -610,6 +661,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -624,6 +678,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>31000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -638,6 +695,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>31600</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -652,6 +712,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -666,6 +729,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>78000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -680,6 +746,9 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" t="n">
+        <v>89000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -694,6 +763,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>210000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -708,6 +780,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -722,6 +797,9 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
+      <c r="E25" t="n">
+        <v>13864</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -736,6 +814,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>43300</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -750,6 +831,9 @@
       <c r="D27" t="n">
         <v>1</v>
       </c>
+      <c r="E27" t="n">
+        <v>67500</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -764,6 +848,9 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>500052</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -778,6 +865,9 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -792,6 +882,9 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>11037</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -806,6 +899,9 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="n">
+        <v>283140</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -820,6 +916,9 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>50500</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -834,6 +933,9 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="n">
+        <v>104140</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -848,6 +950,9 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
+      <c r="E34" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -862,6 +967,9 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
+      <c r="E35" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -876,6 +984,9 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="n">
+        <v>11012</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -890,6 +1001,9 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -904,6 +1018,9 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
+      <c r="E38" t="n">
+        <v>14000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -918,6 +1035,9 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="n">
+        <v>455005</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -932,6 +1052,9 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="n">
+        <v>1036166</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -946,6 +1069,9 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="n">
+        <v>16083</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -960,6 +1086,9 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
+      <c r="E42" t="n">
+        <v>31500</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -974,6 +1103,9 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="n">
+        <v>44000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -988,6 +1120,9 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>24304</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1002,6 +1137,9 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="n">
+        <v>67500</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1016,6 +1154,9 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="n">
+        <v>17500</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1029,6 +1170,9 @@
       </c>
       <c r="D47" t="n">
         <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16350</v>
       </c>
     </row>
   </sheetData>
@@ -1058,6 +1202,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1072,6 +1219,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1086,6 +1236,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>38000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1100,6 +1253,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1114,6 +1270,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>200321</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1128,6 +1287,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>125000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1142,6 +1304,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>142290</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1155,6 +1320,9 @@
       </c>
       <c r="D8" t="n">
         <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -1184,6 +1352,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1198,6 +1369,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1212,6 +1386,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>32530</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1226,6 +1403,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>63015</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1240,6 +1420,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>35020</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1254,6 +1437,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>10121</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1268,6 +1454,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>32938</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1282,6 +1471,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1296,6 +1488,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>70607</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1309,6 +1504,9 @@
       </c>
       <c r="D10" t="n">
         <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6034</v>
       </c>
     </row>
   </sheetData>
@@ -1338,6 +1536,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1352,6 +1553,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>27645</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1366,6 +1570,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>95862</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1380,6 +1587,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>25155</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1394,6 +1604,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1408,6 +1621,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>104755</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1422,6 +1638,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>2671556</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1436,6 +1655,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>25475</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1450,6 +1672,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>24297</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1464,6 +1689,7 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1478,6 +1704,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>513387</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1492,6 +1721,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>12555</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1506,6 +1738,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>193881</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1519,6 +1754,9 @@
       </c>
       <c r="D14" t="n">
         <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>681499</v>
       </c>
     </row>
   </sheetData>
@@ -1548,6 +1786,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1562,6 +1803,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>190100</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1576,6 +1820,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>46000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1590,6 +1837,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1604,6 +1854,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>168500</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1618,6 +1871,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>640032</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1632,6 +1888,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>556073</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1646,6 +1905,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>33652026</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1660,6 +1922,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>9062000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1674,6 +1939,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>120600</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1688,6 +1956,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>41357</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1702,6 +1973,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>8253000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1716,6 +1990,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>22019</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1730,6 +2007,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>100012</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1744,6 +2024,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>2481</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1758,6 +2041,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>8000000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1772,6 +2058,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>458855</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1786,6 +2075,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1800,6 +2092,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>825223</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1814,6 +2109,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>650000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1828,6 +2126,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>16700000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1842,6 +2143,9 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" t="n">
+        <v>11230230</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1856,6 +2160,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>1270000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1870,6 +2177,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>1013000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1884,6 +2194,9 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
+      <c r="E25" t="n">
+        <v>1240000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1898,6 +2211,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>18509</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1912,6 +2228,9 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="n">
+        <v>188046</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1926,6 +2245,9 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>14500</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1940,6 +2262,9 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>19624000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1954,6 +2279,9 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>1350008</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1968,6 +2296,9 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="n">
+        <v>5719000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1982,6 +2313,9 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>4610000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1996,6 +2330,9 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="n">
+        <v>2460000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2010,6 +2347,9 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
+      <c r="E34" t="n">
+        <v>80000</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2024,6 +2364,9 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
+      <c r="E35" t="n">
+        <v>615500</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2038,6 +2381,9 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="n">
+        <v>105000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2052,6 +2398,9 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>68761</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2066,6 +2415,9 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
+      <c r="E38" t="n">
+        <v>10461</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2080,6 +2432,9 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="n">
+        <v>36900</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2094,6 +2449,9 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="n">
+        <v>3150000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2108,6 +2466,9 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="n">
+        <v>350035</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2122,6 +2483,9 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
+      <c r="E42" t="n">
+        <v>356000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2136,6 +2500,9 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="n">
+        <v>4600024</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2150,6 +2517,9 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2164,6 +2534,9 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="n">
+        <v>1410000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2178,6 +2551,9 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="n">
+        <v>2375016</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2192,6 +2568,9 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
+      <c r="E47" t="n">
+        <v>270000</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2206,6 +2585,9 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
+      <c r="E48" t="n">
+        <v>4120000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2220,6 +2602,9 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
+      <c r="E49" t="n">
+        <v>10009</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2234,6 +2619,9 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
+      <c r="E50" t="n">
+        <v>1400000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2248,6 +2636,9 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="n">
+        <v>29622000</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2262,6 +2653,9 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
+      <c r="E52" t="n">
+        <v>265106</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2276,6 +2670,9 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
+      <c r="E53" t="n">
+        <v>6531000</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2290,6 +2687,9 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
+      <c r="E54" t="n">
+        <v>10000000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2304,6 +2704,9 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
+      <c r="E55" t="n">
+        <v>5923350</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2318,6 +2721,9 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
+      <c r="E56" t="n">
+        <v>45551</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2332,6 +2738,9 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="n">
+        <v>20004</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2346,6 +2755,9 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
+      <c r="E58" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2360,6 +2772,9 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
+      <c r="E59" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2374,6 +2789,9 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
+      <c r="E60" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2388,6 +2806,9 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
+      <c r="E61" t="n">
+        <v>2300050</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2402,6 +2823,9 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
+      <c r="E62" t="n">
+        <v>250000</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2416,6 +2840,9 @@
       <c r="D63" t="n">
         <v>1</v>
       </c>
+      <c r="E63" t="n">
+        <v>105004000</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2430,6 +2857,9 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" t="n">
+        <v>350000</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2444,6 +2874,9 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
+      <c r="E65" t="n">
+        <v>112742</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2458,6 +2891,9 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
+      <c r="E66" t="n">
+        <v>386000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2472,6 +2908,9 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
+      <c r="E67" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2486,6 +2925,9 @@
       <c r="D68" t="n">
         <v>0</v>
       </c>
+      <c r="E68" t="n">
+        <v>2430000</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2500,6 +2942,9 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
+      <c r="E69" t="n">
+        <v>8000000</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2514,6 +2959,9 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
+      <c r="E70" t="n">
+        <v>213000</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2528,6 +2976,9 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
+      <c r="E71" t="n">
+        <v>17500</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2542,6 +2993,7 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
+      <c r="E72"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2556,6 +3008,9 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
+      <c r="E73" t="n">
+        <v>77000000</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2570,6 +3025,9 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
+      <c r="E74" t="n">
+        <v>274000</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2584,6 +3042,9 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
+      <c r="E75" t="n">
+        <v>780000</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2598,6 +3059,9 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
+      <c r="E76" t="n">
+        <v>45976596</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2612,6 +3076,9 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
+      <c r="E77" t="n">
+        <v>351000</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2626,6 +3093,9 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
+      <c r="E78" t="n">
+        <v>538166</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2640,6 +3110,9 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
+      <c r="E79" t="n">
+        <v>1600000</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2654,6 +3127,9 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
+      <c r="E80" t="n">
+        <v>340000</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2668,6 +3144,9 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="n">
+        <v>3000000</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2682,6 +3161,9 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
+      <c r="E82" t="n">
+        <v>93006</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2696,6 +3178,9 @@
       <c r="D83" t="n">
         <v>0</v>
       </c>
+      <c r="E83" t="n">
+        <v>13529</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2710,6 +3195,9 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
+      <c r="E84" t="n">
+        <v>810000</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2724,6 +3212,9 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>42000</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2738,6 +3229,9 @@
       <c r="D86" t="n">
         <v>0</v>
       </c>
+      <c r="E86" t="n">
+        <v>900000</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2752,6 +3246,9 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
+      <c r="E87" t="n">
+        <v>1000589</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2766,6 +3263,7 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
+      <c r="E88"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2780,6 +3278,9 @@
       <c r="D89" t="n">
         <v>0</v>
       </c>
+      <c r="E89" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2794,6 +3295,9 @@
       <c r="D90" t="n">
         <v>0</v>
       </c>
+      <c r="E90" t="n">
+        <v>411000</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2808,6 +3312,9 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
+      <c r="E91" t="n">
+        <v>27169</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2822,6 +3329,9 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
+      <c r="E92" t="n">
+        <v>5630000</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2836,6 +3346,9 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="n">
+        <v>48631</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2850,6 +3363,9 @@
       <c r="D94" t="n">
         <v>0</v>
       </c>
+      <c r="E94" t="n">
+        <v>106000</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2864,6 +3380,9 @@
       <c r="D95" t="n">
         <v>0</v>
       </c>
+      <c r="E95" t="n">
+        <v>39372000</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2878,6 +3397,9 @@
       <c r="D96" t="n">
         <v>0</v>
       </c>
+      <c r="E96" t="n">
+        <v>65336</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2892,6 +3414,9 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>10004</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2906,6 +3431,9 @@
       <c r="D98" t="n">
         <v>0</v>
       </c>
+      <c r="E98" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2920,6 +3448,9 @@
       <c r="D99" t="n">
         <v>0</v>
       </c>
+      <c r="E99" t="n">
+        <v>11000004</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2934,6 +3465,9 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
+      <c r="E100" t="n">
+        <v>118000</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2948,6 +3482,9 @@
       <c r="D101" t="n">
         <v>0</v>
       </c>
+      <c r="E101" t="n">
+        <v>1000058</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2962,6 +3499,9 @@
       <c r="D102" t="n">
         <v>0</v>
       </c>
+      <c r="E102" t="n">
+        <v>10000096</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2976,6 +3516,9 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
+      <c r="E103" t="n">
+        <v>1197799</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2990,6 +3533,9 @@
       <c r="D104" t="n">
         <v>0</v>
       </c>
+      <c r="E104" t="n">
+        <v>1881100</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3004,6 +3550,9 @@
       <c r="D105" t="n">
         <v>0</v>
       </c>
+      <c r="E105" t="n">
+        <v>10515</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3018,6 +3567,9 @@
       <c r="D106" t="n">
         <v>0</v>
       </c>
+      <c r="E106" t="n">
+        <v>50011</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3032,6 +3584,9 @@
       <c r="D107" t="n">
         <v>0</v>
       </c>
+      <c r="E107" t="n">
+        <v>112000</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3046,6 +3601,9 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
+      <c r="E108" t="n">
+        <v>70190</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3060,6 +3618,9 @@
       <c r="D109" t="n">
         <v>0</v>
       </c>
+      <c r="E109" t="n">
+        <v>134000000</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3074,6 +3635,9 @@
       <c r="D110" t="n">
         <v>0</v>
       </c>
+      <c r="E110" t="n">
+        <v>2100000</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3088,6 +3652,9 @@
       <c r="D111" t="n">
         <v>0</v>
       </c>
+      <c r="E111" t="n">
+        <v>47200</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3102,6 +3669,9 @@
       <c r="D112" t="n">
         <v>0</v>
       </c>
+      <c r="E112" t="n">
+        <v>64136</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3116,6 +3686,9 @@
       <c r="D113" t="n">
         <v>0</v>
       </c>
+      <c r="E113" t="n">
+        <v>186000</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3130,6 +3703,9 @@
       <c r="D114" t="n">
         <v>0</v>
       </c>
+      <c r="E114" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3144,6 +3720,9 @@
       <c r="D115" t="n">
         <v>0</v>
       </c>
+      <c r="E115" t="n">
+        <v>130000</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3158,6 +3737,9 @@
       <c r="D116" t="n">
         <v>0</v>
       </c>
+      <c r="E116" t="n">
+        <v>4033472</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3172,6 +3754,9 @@
       <c r="D117" t="n">
         <v>0</v>
       </c>
+      <c r="E117" t="n">
+        <v>64501</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3186,6 +3771,9 @@
       <c r="D118" t="n">
         <v>0</v>
       </c>
+      <c r="E118" t="n">
+        <v>22000150</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3200,6 +3788,9 @@
       <c r="D119" t="n">
         <v>0</v>
       </c>
+      <c r="E119" t="n">
+        <v>67900000</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3214,6 +3805,9 @@
       <c r="D120" t="n">
         <v>0</v>
       </c>
+      <c r="E120" t="n">
+        <v>1600000</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3228,6 +3822,9 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
+      <c r="E121" t="n">
+        <v>3800000</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3242,6 +3839,9 @@
       <c r="D122" t="n">
         <v>0</v>
       </c>
+      <c r="E122" t="n">
+        <v>3649800</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3256,6 +3856,9 @@
       <c r="D123" t="n">
         <v>0</v>
       </c>
+      <c r="E123" t="n">
+        <v>20000000</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3270,6 +3873,9 @@
       <c r="D124" t="n">
         <v>0</v>
       </c>
+      <c r="E124" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3284,6 +3890,9 @@
       <c r="D125" t="n">
         <v>0</v>
       </c>
+      <c r="E125" t="n">
+        <v>143000</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3298,6 +3907,9 @@
       <c r="D126" t="n">
         <v>0</v>
       </c>
+      <c r="E126" t="n">
+        <v>50650</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3312,6 +3924,9 @@
       <c r="D127" t="n">
         <v>0</v>
       </c>
+      <c r="E127" t="n">
+        <v>36641</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3326,6 +3941,9 @@
       <c r="D128" t="n">
         <v>0</v>
       </c>
+      <c r="E128" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3340,6 +3958,9 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
+      <c r="E129" t="n">
+        <v>127000</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3354,6 +3975,9 @@
       <c r="D130" t="n">
         <v>0</v>
       </c>
+      <c r="E130" t="n">
+        <v>13119000</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3368,6 +3992,9 @@
       <c r="D131" t="n">
         <v>0</v>
       </c>
+      <c r="E131" t="n">
+        <v>185000</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3382,6 +4009,9 @@
       <c r="D132" t="n">
         <v>0</v>
       </c>
+      <c r="E132" t="n">
+        <v>125000</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3396,6 +4026,9 @@
       <c r="D133" t="n">
         <v>0</v>
       </c>
+      <c r="E133" t="n">
+        <v>17440000</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3410,6 +4043,9 @@
       <c r="D134" t="n">
         <v>0</v>
       </c>
+      <c r="E134" t="n">
+        <v>34234</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3424,6 +4060,9 @@
       <c r="D135" t="n">
         <v>0</v>
       </c>
+      <c r="E135" t="n">
+        <v>155052</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3438,6 +4077,9 @@
       <c r="D136" t="n">
         <v>0</v>
       </c>
+      <c r="E136" t="n">
+        <v>140000</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3452,6 +4094,9 @@
       <c r="D137" t="n">
         <v>0</v>
       </c>
+      <c r="E137" t="n">
+        <v>220000</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3466,6 +4111,9 @@
       <c r="D138" t="n">
         <v>0</v>
       </c>
+      <c r="E138" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3480,6 +4128,9 @@
       <c r="D139" t="n">
         <v>0</v>
       </c>
+      <c r="E139" t="n">
+        <v>58500</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3494,6 +4145,9 @@
       <c r="D140" t="n">
         <v>0</v>
       </c>
+      <c r="E140" t="n">
+        <v>500000</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3508,6 +4162,9 @@
       <c r="D141" t="n">
         <v>0</v>
       </c>
+      <c r="E141" t="n">
+        <v>3790000</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3522,6 +4179,9 @@
       <c r="D142" t="n">
         <v>0</v>
       </c>
+      <c r="E142" t="n">
+        <v>232170</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3536,6 +4196,9 @@
       <c r="D143" t="n">
         <v>0</v>
       </c>
+      <c r="E143" t="n">
+        <v>6000007</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3550,6 +4213,9 @@
       <c r="D144" t="n">
         <v>0</v>
       </c>
+      <c r="E144" t="n">
+        <v>107500</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3564,6 +4230,9 @@
       <c r="D145" t="n">
         <v>0</v>
       </c>
+      <c r="E145" t="n">
+        <v>210000</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3578,6 +4247,9 @@
       <c r="D146" t="n">
         <v>0</v>
       </c>
+      <c r="E146" t="n">
+        <v>744821</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3592,6 +4264,9 @@
       <c r="D147" t="n">
         <v>0</v>
       </c>
+      <c r="E147" t="n">
+        <v>126000</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3606,6 +4281,9 @@
       <c r="D148" t="n">
         <v>0</v>
       </c>
+      <c r="E148" t="n">
+        <v>13500</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3620,6 +4298,9 @@
       <c r="D149" t="n">
         <v>0</v>
       </c>
+      <c r="E149" t="n">
+        <v>427740</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3634,6 +4315,9 @@
       <c r="D150" t="n">
         <v>0</v>
       </c>
+      <c r="E150" t="n">
+        <v>1398324</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3648,6 +4332,9 @@
       <c r="D151" t="n">
         <v>0</v>
       </c>
+      <c r="E151" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3662,6 +4349,9 @@
       <c r="D152" t="n">
         <v>0</v>
       </c>
+      <c r="E152" t="n">
+        <v>80555</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3676,6 +4366,9 @@
       <c r="D153" t="n">
         <v>0</v>
       </c>
+      <c r="E153" t="n">
+        <v>2198785</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3690,6 +4383,9 @@
       <c r="D154" t="n">
         <v>0</v>
       </c>
+      <c r="E154" t="n">
+        <v>217000</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3704,6 +4400,9 @@
       <c r="D155" t="n">
         <v>0</v>
       </c>
+      <c r="E155" t="n">
+        <v>255000</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3718,6 +4417,9 @@
       <c r="D156" t="n">
         <v>0</v>
       </c>
+      <c r="E156" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3732,6 +4434,9 @@
       <c r="D157" t="n">
         <v>0</v>
       </c>
+      <c r="E157" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3746,6 +4451,9 @@
       <c r="D158" t="n">
         <v>0</v>
       </c>
+      <c r="E158" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3760,6 +4468,9 @@
       <c r="D159" t="n">
         <v>0</v>
       </c>
+      <c r="E159" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3774,6 +4485,9 @@
       <c r="D160" t="n">
         <v>0</v>
       </c>
+      <c r="E160" t="n">
+        <v>280500</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3788,6 +4502,9 @@
       <c r="D161" t="n">
         <v>0</v>
       </c>
+      <c r="E161" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3802,6 +4519,9 @@
       <c r="D162" t="n">
         <v>0</v>
       </c>
+      <c r="E162" t="n">
+        <v>625000</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3816,6 +4536,9 @@
       <c r="D163" t="n">
         <v>0</v>
       </c>
+      <c r="E163" t="n">
+        <v>21000</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3830,6 +4553,9 @@
       <c r="D164" t="n">
         <v>0</v>
       </c>
+      <c r="E164" t="n">
+        <v>3500000</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3844,6 +4570,9 @@
       <c r="D165" t="n">
         <v>0</v>
       </c>
+      <c r="E165" t="n">
+        <v>390150</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3858,6 +4587,9 @@
       <c r="D166" t="n">
         <v>0</v>
       </c>
+      <c r="E166" t="n">
+        <v>718500</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3872,6 +4604,9 @@
       <c r="D167" t="n">
         <v>0</v>
       </c>
+      <c r="E167" t="n">
+        <v>123887</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3886,6 +4621,9 @@
       <c r="D168" t="n">
         <v>0</v>
       </c>
+      <c r="E168" t="n">
+        <v>125000</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3900,6 +4638,9 @@
       <c r="D169" t="n">
         <v>0</v>
       </c>
+      <c r="E169" t="n">
+        <v>1075000</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3914,6 +4655,9 @@
       <c r="D170" t="n">
         <v>0</v>
       </c>
+      <c r="E170" t="n">
+        <v>8000000</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3928,6 +4672,9 @@
       <c r="D171" t="n">
         <v>0</v>
       </c>
+      <c r="E171" t="n">
+        <v>255000</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3942,6 +4689,9 @@
       <c r="D172" t="n">
         <v>0</v>
       </c>
+      <c r="E172" t="n">
+        <v>189800</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3956,6 +4706,9 @@
       <c r="D173" t="n">
         <v>0</v>
       </c>
+      <c r="E173" t="n">
+        <v>538050</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3970,6 +4723,9 @@
       <c r="D174" t="n">
         <v>0</v>
       </c>
+      <c r="E174" t="n">
+        <v>150030</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3984,6 +4740,9 @@
       <c r="D175" t="n">
         <v>0</v>
       </c>
+      <c r="E175" t="n">
+        <v>506000</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3998,6 +4757,9 @@
       <c r="D176" t="n">
         <v>0</v>
       </c>
+      <c r="E176" t="n">
+        <v>475000</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4012,6 +4774,9 @@
       <c r="D177" t="n">
         <v>0</v>
       </c>
+      <c r="E177" t="n">
+        <v>51800</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4026,6 +4791,9 @@
       <c r="D178" t="n">
         <v>0</v>
       </c>
+      <c r="E178" t="n">
+        <v>58300</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4040,6 +4808,9 @@
       <c r="D179" t="n">
         <v>0</v>
       </c>
+      <c r="E179" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4054,6 +4825,9 @@
       <c r="D180" t="n">
         <v>0</v>
       </c>
+      <c r="E180" t="n">
+        <v>90500</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4068,6 +4842,9 @@
       <c r="D181" t="n">
         <v>0</v>
       </c>
+      <c r="E181" t="n">
+        <v>100090</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4082,6 +4859,9 @@
       <c r="D182" t="n">
         <v>0</v>
       </c>
+      <c r="E182" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4096,6 +4876,9 @@
       <c r="D183" t="n">
         <v>0</v>
       </c>
+      <c r="E183" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4110,6 +4893,9 @@
       <c r="D184" t="n">
         <v>0</v>
       </c>
+      <c r="E184" t="n">
+        <v>400000</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4124,6 +4910,9 @@
       <c r="D185" t="n">
         <v>0</v>
       </c>
+      <c r="E185" t="n">
+        <v>75021</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4138,6 +4927,9 @@
       <c r="D186" t="n">
         <v>0</v>
       </c>
+      <c r="E186" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4152,6 +4944,9 @@
       <c r="D187" t="n">
         <v>0</v>
       </c>
+      <c r="E187" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4166,6 +4961,9 @@
       <c r="D188" t="n">
         <v>0</v>
       </c>
+      <c r="E188" t="n">
+        <v>225015</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4180,6 +4978,9 @@
       <c r="D189" t="n">
         <v>0</v>
       </c>
+      <c r="E189" t="n">
+        <v>5500000</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4194,6 +4995,9 @@
       <c r="D190" t="n">
         <v>0</v>
       </c>
+      <c r="E190" t="n">
+        <v>184723</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4208,6 +5012,9 @@
       <c r="D191" t="n">
         <v>0</v>
       </c>
+      <c r="E191" t="n">
+        <v>720000</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4222,6 +5029,9 @@
       <c r="D192" t="n">
         <v>0</v>
       </c>
+      <c r="E192" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4236,6 +5046,9 @@
       <c r="D193" t="n">
         <v>0</v>
       </c>
+      <c r="E193" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4250,6 +5063,9 @@
       <c r="D194" t="n">
         <v>0</v>
       </c>
+      <c r="E194" t="n">
+        <v>15000000</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4264,6 +5080,9 @@
       <c r="D195" t="n">
         <v>0</v>
       </c>
+      <c r="E195" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4278,6 +5097,9 @@
       <c r="D196" t="n">
         <v>0</v>
       </c>
+      <c r="E196" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4292,6 +5114,9 @@
       <c r="D197" t="n">
         <v>0</v>
       </c>
+      <c r="E197" t="n">
+        <v>61000</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4306,6 +5131,9 @@
       <c r="D198" t="n">
         <v>0</v>
       </c>
+      <c r="E198" t="n">
+        <v>110500</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4320,6 +5148,9 @@
       <c r="D199" t="n">
         <v>0</v>
       </c>
+      <c r="E199" t="n">
+        <v>9960099</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4334,6 +5165,9 @@
       <c r="D200" t="n">
         <v>0</v>
       </c>
+      <c r="E200" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4348,6 +5182,9 @@
       <c r="D201" t="n">
         <v>0</v>
       </c>
+      <c r="E201" t="n">
+        <v>1120513</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4362,6 +5199,9 @@
       <c r="D202" t="n">
         <v>0</v>
       </c>
+      <c r="E202" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4376,6 +5216,9 @@
       <c r="D203" t="n">
         <v>0</v>
       </c>
+      <c r="E203" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4390,6 +5233,9 @@
       <c r="D204" t="n">
         <v>0</v>
       </c>
+      <c r="E204" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4404,6 +5250,9 @@
       <c r="D205" t="n">
         <v>0</v>
       </c>
+      <c r="E205" t="n">
+        <v>136255</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4418,6 +5267,9 @@
       <c r="D206" t="n">
         <v>0</v>
       </c>
+      <c r="E206" t="n">
+        <v>1065000</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4432,6 +5284,9 @@
       <c r="D207" t="n">
         <v>0</v>
       </c>
+      <c r="E207" t="n">
+        <v>394000</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4446,6 +5301,9 @@
       <c r="D208" t="n">
         <v>0</v>
       </c>
+      <c r="E208" t="n">
+        <v>255324</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4460,6 +5318,9 @@
       <c r="D209" t="n">
         <v>0</v>
       </c>
+      <c r="E209" t="n">
+        <v>82355</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4474,6 +5335,9 @@
       <c r="D210" t="n">
         <v>0</v>
       </c>
+      <c r="E210" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4488,6 +5352,9 @@
       <c r="D211" t="n">
         <v>0</v>
       </c>
+      <c r="E211" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4502,6 +5369,9 @@
       <c r="D212" t="n">
         <v>0</v>
       </c>
+      <c r="E212" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4516,6 +5386,9 @@
       <c r="D213" t="n">
         <v>0</v>
       </c>
+      <c r="E213" t="n">
+        <v>207883</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -4530,6 +5403,9 @@
       <c r="D214" t="n">
         <v>0</v>
       </c>
+      <c r="E214" t="n">
+        <v>79800</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4544,6 +5420,9 @@
       <c r="D215" t="n">
         <v>0</v>
       </c>
+      <c r="E215" t="n">
+        <v>82021</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4558,6 +5437,9 @@
       <c r="D216" t="n">
         <v>0</v>
       </c>
+      <c r="E216" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4572,6 +5454,9 @@
       <c r="D217" t="n">
         <v>0</v>
       </c>
+      <c r="E217" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4586,6 +5471,9 @@
       <c r="D218" t="n">
         <v>0</v>
       </c>
+      <c r="E218" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4600,6 +5488,9 @@
       <c r="D219" t="n">
         <v>0</v>
       </c>
+      <c r="E219" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -4614,6 +5505,9 @@
       <c r="D220" t="n">
         <v>0</v>
       </c>
+      <c r="E220" t="n">
+        <v>193000</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4628,6 +5522,9 @@
       <c r="D221" t="n">
         <v>0</v>
       </c>
+      <c r="E221" t="n">
+        <v>144900</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -4642,6 +5539,9 @@
       <c r="D222" t="n">
         <v>0</v>
       </c>
+      <c r="E222" t="n">
+        <v>56000</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4656,6 +5556,9 @@
       <c r="D223" t="n">
         <v>0</v>
       </c>
+      <c r="E223" t="n">
+        <v>13800</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4670,6 +5573,9 @@
       <c r="D224" t="n">
         <v>0</v>
       </c>
+      <c r="E224" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4684,6 +5590,9 @@
       <c r="D225" t="n">
         <v>0</v>
       </c>
+      <c r="E225" t="n">
+        <v>128610</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4698,6 +5607,9 @@
       <c r="D226" t="n">
         <v>0</v>
       </c>
+      <c r="E226" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -4712,6 +5624,9 @@
       <c r="D227" t="n">
         <v>0</v>
       </c>
+      <c r="E227" t="n">
+        <v>1580000</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4726,6 +5641,9 @@
       <c r="D228" t="n">
         <v>0</v>
       </c>
+      <c r="E228" t="n">
+        <v>77440</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -4740,6 +5658,9 @@
       <c r="D229" t="n">
         <v>0</v>
       </c>
+      <c r="E229" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -4754,6 +5675,9 @@
       <c r="D230" t="n">
         <v>0</v>
       </c>
+      <c r="E230" t="n">
+        <v>78300</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -4768,6 +5692,9 @@
       <c r="D231" t="n">
         <v>0</v>
       </c>
+      <c r="E231" t="n">
+        <v>15600</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -4782,6 +5709,9 @@
       <c r="D232" t="n">
         <v>0</v>
       </c>
+      <c r="E232" t="n">
+        <v>639000</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -4796,6 +5726,7 @@
       <c r="D233" t="n">
         <v>0</v>
       </c>
+      <c r="E233"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -4810,6 +5741,9 @@
       <c r="D234" t="n">
         <v>0</v>
       </c>
+      <c r="E234" t="n">
+        <v>219300</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -4824,6 +5758,9 @@
       <c r="D235" t="n">
         <v>0</v>
       </c>
+      <c r="E235" t="n">
+        <v>48000</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -4838,6 +5775,9 @@
       <c r="D236" t="n">
         <v>0</v>
       </c>
+      <c r="E236" t="n">
+        <v>237600</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -4852,6 +5792,9 @@
       <c r="D237" t="n">
         <v>0</v>
       </c>
+      <c r="E237" t="n">
+        <v>44100</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -4866,6 +5809,9 @@
       <c r="D238" t="n">
         <v>0</v>
       </c>
+      <c r="E238" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -4880,6 +5826,9 @@
       <c r="D239" t="n">
         <v>0</v>
       </c>
+      <c r="E239" t="n">
+        <v>254400</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -4894,6 +5843,9 @@
       <c r="D240" t="n">
         <v>0</v>
       </c>
+      <c r="E240" t="n">
+        <v>45846</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -4908,6 +5860,9 @@
       <c r="D241" t="n">
         <v>0</v>
       </c>
+      <c r="E241" t="n">
+        <v>165000</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -4922,6 +5877,9 @@
       <c r="D242" t="n">
         <v>0</v>
       </c>
+      <c r="E242" t="n">
+        <v>150000</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -4936,6 +5894,9 @@
       <c r="D243" t="n">
         <v>0</v>
       </c>
+      <c r="E243" t="n">
+        <v>46000</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -4950,6 +5911,9 @@
       <c r="D244" t="n">
         <v>0</v>
       </c>
+      <c r="E244" t="n">
+        <v>60000000</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -4964,6 +5928,9 @@
       <c r="D245" t="n">
         <v>0</v>
       </c>
+      <c r="E245" t="n">
+        <v>24900</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -4978,6 +5945,9 @@
       <c r="D246" t="n">
         <v>0</v>
       </c>
+      <c r="E246" t="n">
+        <v>375000</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -4992,6 +5962,9 @@
       <c r="D247" t="n">
         <v>0</v>
       </c>
+      <c r="E247" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5006,6 +5979,9 @@
       <c r="D248" t="n">
         <v>0</v>
       </c>
+      <c r="E248" t="n">
+        <v>14400</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5020,6 +5996,9 @@
       <c r="D249" t="n">
         <v>0</v>
       </c>
+      <c r="E249" t="n">
+        <v>36900</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5034,6 +6013,9 @@
       <c r="D250" t="n">
         <v>0</v>
       </c>
+      <c r="E250" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5048,6 +6030,9 @@
       <c r="D251" t="n">
         <v>0</v>
       </c>
+      <c r="E251" t="n">
+        <v>205500</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5062,6 +6047,9 @@
       <c r="D252" t="n">
         <v>0</v>
       </c>
+      <c r="E252" t="n">
+        <v>36000</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5076,6 +6064,7 @@
       <c r="D253" t="n">
         <v>0</v>
       </c>
+      <c r="E253"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5090,6 +6079,9 @@
       <c r="D254" t="n">
         <v>0</v>
       </c>
+      <c r="E254" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5104,6 +6096,9 @@
       <c r="D255" t="n">
         <v>0</v>
       </c>
+      <c r="E255" t="n">
+        <v>37200</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5118,6 +6113,9 @@
       <c r="D256" t="n">
         <v>0</v>
       </c>
+      <c r="E256" t="n">
+        <v>41133</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5132,6 +6130,9 @@
       <c r="D257" t="n">
         <v>0</v>
       </c>
+      <c r="E257" t="n">
+        <v>76800</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5146,6 +6147,9 @@
       <c r="D258" t="n">
         <v>0</v>
       </c>
+      <c r="E258" t="n">
+        <v>28500</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -5160,6 +6164,9 @@
       <c r="D259" t="n">
         <v>0</v>
       </c>
+      <c r="E259" t="n">
+        <v>34500</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5174,6 +6181,9 @@
       <c r="D260" t="n">
         <v>0</v>
       </c>
+      <c r="E260" t="n">
+        <v>12000008</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5188,6 +6198,9 @@
       <c r="D261" t="n">
         <v>0</v>
       </c>
+      <c r="E261" t="n">
+        <v>21600</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -5202,6 +6215,9 @@
       <c r="D262" t="n">
         <v>0</v>
       </c>
+      <c r="E262" t="n">
+        <v>174300</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5216,6 +6232,9 @@
       <c r="D263" t="n">
         <v>0</v>
       </c>
+      <c r="E263" t="n">
+        <v>14400</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5230,6 +6249,9 @@
       <c r="D264" t="n">
         <v>0</v>
       </c>
+      <c r="E264" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5244,6 +6266,9 @@
       <c r="D265" t="n">
         <v>0</v>
       </c>
+      <c r="E265" t="n">
+        <v>13800</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5258,6 +6283,9 @@
       <c r="D266" t="n">
         <v>0</v>
       </c>
+      <c r="E266" t="n">
+        <v>218325</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -5272,6 +6300,9 @@
       <c r="D267" t="n">
         <v>0</v>
       </c>
+      <c r="E267" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -5286,6 +6317,9 @@
       <c r="D268" t="n">
         <v>0</v>
       </c>
+      <c r="E268" t="n">
+        <v>37800</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5300,6 +6334,9 @@
       <c r="D269" t="n">
         <v>0</v>
       </c>
+      <c r="E269" t="n">
+        <v>22273</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -5314,6 +6351,9 @@
       <c r="D270" t="n">
         <v>0</v>
       </c>
+      <c r="E270" t="n">
+        <v>61500</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5328,6 +6368,9 @@
       <c r="D271" t="n">
         <v>0</v>
       </c>
+      <c r="E271" t="n">
+        <v>15600</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5342,6 +6385,9 @@
       <c r="D272" t="n">
         <v>0</v>
       </c>
+      <c r="E272" t="n">
+        <v>23403</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -5356,6 +6402,9 @@
       <c r="D273" t="n">
         <v>0</v>
       </c>
+      <c r="E273" t="n">
+        <v>2503700</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -5370,6 +6419,9 @@
       <c r="D274" t="n">
         <v>0</v>
       </c>
+      <c r="E274" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -5384,6 +6436,9 @@
       <c r="D275" t="n">
         <v>0</v>
       </c>
+      <c r="E275" t="n">
+        <v>177000</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -5398,6 +6453,9 @@
       <c r="D276" t="n">
         <v>0</v>
       </c>
+      <c r="E276" t="n">
+        <v>450000</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -5412,6 +6470,9 @@
       <c r="D277" t="n">
         <v>0</v>
       </c>
+      <c r="E277" t="n">
+        <v>70000</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -5426,6 +6487,9 @@
       <c r="D278" t="n">
         <v>0</v>
       </c>
+      <c r="E278" t="n">
+        <v>225000</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -5440,6 +6504,9 @@
       <c r="D279" t="n">
         <v>0</v>
       </c>
+      <c r="E279" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -5454,6 +6521,9 @@
       <c r="D280" t="n">
         <v>0</v>
       </c>
+      <c r="E280" t="n">
+        <v>36000</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -5468,6 +6538,9 @@
       <c r="D281" t="n">
         <v>0</v>
       </c>
+      <c r="E281" t="n">
+        <v>1381000</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -5482,6 +6555,9 @@
       <c r="D282" t="n">
         <v>0</v>
       </c>
+      <c r="E282" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -5496,6 +6572,9 @@
       <c r="D283" t="n">
         <v>0</v>
       </c>
+      <c r="E283" t="n">
+        <v>1519000</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -5510,6 +6589,9 @@
       <c r="D284" t="n">
         <v>0</v>
       </c>
+      <c r="E284" t="n">
+        <v>16200</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -5524,6 +6606,9 @@
       <c r="D285" t="n">
         <v>0</v>
       </c>
+      <c r="E285" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -5538,6 +6623,9 @@
       <c r="D286" t="n">
         <v>0</v>
       </c>
+      <c r="E286" t="n">
+        <v>18024</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -5552,6 +6640,9 @@
       <c r="D287" t="n">
         <v>0</v>
       </c>
+      <c r="E287" t="n">
+        <v>39600</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -5566,6 +6657,9 @@
       <c r="D288" t="n">
         <v>0</v>
       </c>
+      <c r="E288" t="n">
+        <v>11400</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -5580,6 +6674,9 @@
       <c r="D289" t="n">
         <v>0</v>
       </c>
+      <c r="E289" t="n">
+        <v>1800000</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -5594,6 +6691,9 @@
       <c r="D290" t="n">
         <v>0</v>
       </c>
+      <c r="E290" t="n">
+        <v>32772</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -5608,6 +6708,9 @@
       <c r="D291" t="n">
         <v>0</v>
       </c>
+      <c r="E291" t="n">
+        <v>4500000</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -5622,6 +6725,9 @@
       <c r="D292" t="n">
         <v>0</v>
       </c>
+      <c r="E292" t="n">
+        <v>244220</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -5636,6 +6742,9 @@
       <c r="D293" t="n">
         <v>0</v>
       </c>
+      <c r="E293" t="n">
+        <v>45120</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -5650,6 +6759,9 @@
       <c r="D294" t="n">
         <v>0</v>
       </c>
+      <c r="E294" t="n">
+        <v>360000</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -5664,6 +6776,9 @@
       <c r="D295" t="n">
         <v>0</v>
       </c>
+      <c r="E295" t="n">
+        <v>11400</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -5678,6 +6793,9 @@
       <c r="D296" t="n">
         <v>0</v>
       </c>
+      <c r="E296" t="n">
+        <v>15861</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -5692,6 +6810,9 @@
       <c r="D297" t="n">
         <v>0</v>
       </c>
+      <c r="E297" t="n">
+        <v>108000</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -5706,6 +6827,9 @@
       <c r="D298" t="n">
         <v>0</v>
       </c>
+      <c r="E298" t="n">
+        <v>15582</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -5720,6 +6844,9 @@
       <c r="D299" t="n">
         <v>0</v>
       </c>
+      <c r="E299" t="n">
+        <v>600000</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -5734,6 +6861,9 @@
       <c r="D300" t="n">
         <v>0</v>
       </c>
+      <c r="E300" t="n">
+        <v>4200000</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -5748,6 +6878,9 @@
       <c r="D301" t="n">
         <v>0</v>
       </c>
+      <c r="E301" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -5762,6 +6895,9 @@
       <c r="D302" t="n">
         <v>0</v>
       </c>
+      <c r="E302" t="n">
+        <v>74000</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -5776,6 +6912,9 @@
       <c r="D303" t="n">
         <v>0</v>
       </c>
+      <c r="E303" t="n">
+        <v>10000000</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -5790,6 +6929,9 @@
       <c r="D304" t="n">
         <v>0</v>
       </c>
+      <c r="E304" t="n">
+        <v>15100</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -5804,6 +6946,9 @@
       <c r="D305" t="n">
         <v>0</v>
       </c>
+      <c r="E305" t="n">
+        <v>12235</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -5818,6 +6963,9 @@
       <c r="D306" t="n">
         <v>0</v>
       </c>
+      <c r="E306" t="n">
+        <v>13666</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -5832,6 +6980,9 @@
       <c r="D307" t="n">
         <v>0</v>
       </c>
+      <c r="E307" t="n">
+        <v>80301</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -5846,6 +6997,9 @@
       <c r="D308" t="n">
         <v>0</v>
       </c>
+      <c r="E308" t="n">
+        <v>39028</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -5860,6 +7014,9 @@
       <c r="D309" t="n">
         <v>0</v>
       </c>
+      <c r="E309" t="n">
+        <v>14500000</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -5874,6 +7031,9 @@
       <c r="D310" t="n">
         <v>0</v>
       </c>
+      <c r="E310" t="n">
+        <v>1080000</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -5888,6 +7048,9 @@
       <c r="D311" t="n">
         <v>0</v>
       </c>
+      <c r="E311" t="n">
+        <v>72000</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -5902,6 +7065,9 @@
       <c r="D312" t="n">
         <v>0</v>
       </c>
+      <c r="E312" t="n">
+        <v>286100</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -5916,6 +7082,9 @@
       <c r="D313" t="n">
         <v>0</v>
       </c>
+      <c r="E313" t="n">
+        <v>24395</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -5930,6 +7099,9 @@
       <c r="D314" t="n">
         <v>0</v>
       </c>
+      <c r="E314" t="n">
+        <v>1760000</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -5944,6 +7116,9 @@
       <c r="D315" t="n">
         <v>0</v>
       </c>
+      <c r="E315" t="n">
+        <v>5600</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -5958,6 +7133,9 @@
       <c r="D316" t="n">
         <v>0</v>
       </c>
+      <c r="E316" t="n">
+        <v>19210</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -5972,6 +7150,9 @@
       <c r="D317" t="n">
         <v>0</v>
       </c>
+      <c r="E317" t="n">
+        <v>29030</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -5986,6 +7167,9 @@
       <c r="D318" t="n">
         <v>0</v>
       </c>
+      <c r="E318" t="n">
+        <v>26499</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -6000,6 +7184,7 @@
       <c r="D319" t="n">
         <v>0</v>
       </c>
+      <c r="E319"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -6014,6 +7199,9 @@
       <c r="D320" t="n">
         <v>0</v>
       </c>
+      <c r="E320" t="n">
+        <v>13541</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -6027,6 +7215,9 @@
       </c>
       <c r="D321" t="n">
         <v>0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>130400</v>
       </c>
     </row>
   </sheetData>
@@ -6056,6 +7247,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -6070,6 +7264,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>345386</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -6084,6 +7281,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>85729</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -6098,6 +7298,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>41530</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6112,6 +7315,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>474607</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -6126,6 +7332,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>221465</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -6140,6 +7349,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>1504317</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -6154,6 +7366,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>1162135</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6168,6 +7383,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>14201</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6182,6 +7400,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>1200091</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -6196,6 +7417,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>31250</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6210,6 +7434,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>2791999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6224,6 +7451,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>498924</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -6238,6 +7468,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>56000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -6252,6 +7485,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>17518</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -6266,6 +7502,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>10015</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -6280,6 +7519,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>51781</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -6294,6 +7536,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>41151</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -6308,6 +7553,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -6322,6 +7570,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>41236</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -6336,6 +7587,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>25661</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -6350,6 +7604,9 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" t="n">
+        <v>45360</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -6364,6 +7621,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -6378,6 +7638,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>23250</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -6392,6 +7655,9 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
+      <c r="E25" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -6406,6 +7672,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>26460</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -6420,6 +7689,9 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="n">
+        <v>49800</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -6434,6 +7706,9 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>228000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -6448,6 +7723,9 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>23717</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -6462,6 +7740,9 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>14000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -6476,6 +7757,9 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="n">
+        <v>21521</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -6490,6 +7774,9 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>167250</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6503,6 +7790,9 @@
       </c>
       <c r="D33" t="n">
         <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>44000</v>
       </c>
     </row>
   </sheetData>
@@ -6532,6 +7822,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -6546,6 +7839,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>30040</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -6560,6 +7856,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>14072</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -6574,6 +7873,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6588,6 +7890,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>16828</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -6602,6 +7907,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>20005</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -6616,6 +7924,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>83381</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -6630,6 +7941,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>12833</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6644,6 +7958,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>532898</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -6658,6 +7975,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>105313</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -6672,6 +7992,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>26000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -6686,6 +8009,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>12211</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -6700,6 +8026,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -6714,6 +8043,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>17539</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -6728,6 +8060,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -6742,6 +8077,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>3177923</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -6756,6 +8094,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>29231</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -6770,6 +8111,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>18250</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -6784,6 +8128,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>35543</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -6798,6 +8145,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>618486</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -6812,6 +8162,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>217087</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -6826,6 +8179,9 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" t="n">
+        <v>11556</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -6840,6 +8196,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>137660</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -6854,6 +8213,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -6868,6 +8230,9 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
+      <c r="E25" t="n">
+        <v>459567</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -6882,6 +8247,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>22154</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -6896,6 +8264,9 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="n">
+        <v>21800</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -6910,6 +8281,9 @@
       <c r="D28" t="n">
         <v>1</v>
       </c>
+      <c r="E28" t="n">
+        <v>269515</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -6924,6 +8298,9 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -6938,6 +8315,9 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>89761</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -6952,6 +8332,9 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -6966,6 +8349,9 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6980,6 +8366,9 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="n">
+        <v>34514</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6994,6 +8383,9 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
+      <c r="E34" t="n">
+        <v>118000</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -7008,6 +8400,9 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
+      <c r="E35" t="n">
+        <v>84420</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -7022,6 +8417,9 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="n">
+        <v>10077</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -7036,6 +8434,9 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -7050,6 +8451,9 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
+      <c r="E38" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7064,6 +8468,9 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="n">
+        <v>339792</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7078,6 +8485,9 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7092,6 +8502,9 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="n">
+        <v>2501798</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7106,6 +8519,9 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
+      <c r="E42" t="n">
+        <v>28500</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7120,6 +8536,9 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="n">
+        <v>15007</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -7134,6 +8553,9 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>15060</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -7148,6 +8570,9 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="n">
+        <v>12428</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -7162,6 +8587,9 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="n">
+        <v>137140</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -7176,6 +8604,9 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
+      <c r="E47" t="n">
+        <v>11864</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -7190,6 +8621,9 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
+      <c r="E48" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -7204,6 +8638,9 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
+      <c r="E49" t="n">
+        <v>10060</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -7218,6 +8655,9 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
+      <c r="E50" t="n">
+        <v>15210</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -7232,6 +8672,9 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="n">
+        <v>10500</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -7246,6 +8689,9 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
+      <c r="E52" t="n">
+        <v>248846</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -7260,6 +8706,9 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
+      <c r="E53" t="n">
+        <v>58040</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -7274,6 +8723,9 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
+      <c r="E54" t="n">
+        <v>13860</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -7288,6 +8740,9 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
+      <c r="E55" t="n">
+        <v>115000</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -7302,6 +8757,9 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
+      <c r="E56" t="n">
+        <v>55935</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -7316,6 +8774,9 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="n">
+        <v>23640</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -7330,6 +8791,9 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
+      <c r="E58" t="n">
+        <v>16000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -7344,6 +8808,9 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
+      <c r="E59" t="n">
+        <v>84250</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -7358,6 +8825,9 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
+      <c r="E60" t="n">
+        <v>22500</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -7372,6 +8842,9 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
+      <c r="E61" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7386,6 +8859,9 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
+      <c r="E62" t="n">
+        <v>128182</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7400,6 +8876,9 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
+      <c r="E63" t="n">
+        <v>260350</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7414,6 +8893,9 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" t="n">
+        <v>32002</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7428,6 +8910,9 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
+      <c r="E65" t="n">
+        <v>83158</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7442,6 +8927,9 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
+      <c r="E66" t="n">
+        <v>10420</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7456,6 +8944,9 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
+      <c r="E67" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7470,6 +8961,9 @@
       <c r="D68" t="n">
         <v>1</v>
       </c>
+      <c r="E68" t="n">
+        <v>25750</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7484,6 +8978,9 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
+      <c r="E69" t="n">
+        <v>12247</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7498,6 +8995,9 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
+      <c r="E70" t="n">
+        <v>80313</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7512,6 +9012,9 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
+      <c r="E71" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7526,6 +9029,9 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
+      <c r="E72" t="n">
+        <v>12500</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7540,6 +9046,9 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
+      <c r="E73" t="n">
+        <v>24000</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7554,6 +9063,9 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
+      <c r="E74" t="n">
+        <v>19669</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7568,6 +9080,9 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
+      <c r="E75" t="n">
+        <v>105000</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7582,6 +9097,9 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
+      <c r="E76" t="n">
+        <v>86018</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7596,6 +9114,9 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
+      <c r="E77" t="n">
+        <v>105753</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7610,6 +9131,9 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
+      <c r="E78" t="n">
+        <v>50500</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7624,6 +9148,9 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
+      <c r="E79" t="n">
+        <v>17410</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7638,6 +9165,9 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
+      <c r="E80" t="n">
+        <v>25011</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7652,6 +9182,9 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="n">
+        <v>282420</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -7666,6 +9199,9 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
+      <c r="E82" t="n">
+        <v>133349</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7680,6 +9216,9 @@
       <c r="D83" t="n">
         <v>0</v>
       </c>
+      <c r="E83" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7694,6 +9233,9 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
+      <c r="E84" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7708,6 +9250,9 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="n">
+        <v>13811</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7722,6 +9267,9 @@
       <c r="D86" t="n">
         <v>0</v>
       </c>
+      <c r="E86" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7736,6 +9284,9 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
+      <c r="E87" t="n">
+        <v>50014</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7750,6 +9301,9 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
+      <c r="E88" t="n">
+        <v>12001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7764,6 +9318,9 @@
       <c r="D89" t="n">
         <v>0</v>
       </c>
+      <c r="E89" t="n">
+        <v>102852</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -7778,6 +9335,9 @@
       <c r="D90" t="n">
         <v>0</v>
       </c>
+      <c r="E90" t="n">
+        <v>516927</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7792,6 +9352,9 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
+      <c r="E91" t="n">
+        <v>2000000</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -7806,6 +9369,9 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
+      <c r="E92" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -7820,6 +9386,9 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="n">
+        <v>47778</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -7834,6 +9403,9 @@
       <c r="D94" t="n">
         <v>0</v>
       </c>
+      <c r="E94" t="n">
+        <v>168397</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -7848,6 +9420,9 @@
       <c r="D95" t="n">
         <v>0</v>
       </c>
+      <c r="E95" t="n">
+        <v>59540</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -7862,6 +9437,9 @@
       <c r="D96" t="n">
         <v>0</v>
       </c>
+      <c r="E96" t="n">
+        <v>13002</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -7876,6 +9454,9 @@
       <c r="D97" t="n">
         <v>0</v>
       </c>
+      <c r="E97" t="n">
+        <v>55495</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -7890,6 +9471,9 @@
       <c r="D98" t="n">
         <v>0</v>
       </c>
+      <c r="E98" t="n">
+        <v>52000</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7904,6 +9488,9 @@
       <c r="D99" t="n">
         <v>0</v>
       </c>
+      <c r="E99" t="n">
+        <v>11804</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7918,6 +9505,9 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
+      <c r="E100" t="n">
+        <v>247418</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7932,6 +9522,9 @@
       <c r="D101" t="n">
         <v>0</v>
       </c>
+      <c r="E101" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -7946,6 +9539,9 @@
       <c r="D102" t="n">
         <v>0</v>
       </c>
+      <c r="E102" t="n">
+        <v>501110</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -7960,6 +9556,9 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
+      <c r="E103" t="n">
+        <v>75000</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -7974,6 +9573,9 @@
       <c r="D104" t="n">
         <v>0</v>
       </c>
+      <c r="E104" t="n">
+        <v>10905</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -7988,6 +9590,9 @@
       <c r="D105" t="n">
         <v>0</v>
       </c>
+      <c r="E105" t="n">
+        <v>115000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -8002,6 +9607,9 @@
       <c r="D106" t="n">
         <v>0</v>
       </c>
+      <c r="E106" t="n">
+        <v>112000</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -8016,6 +9624,9 @@
       <c r="D107" t="n">
         <v>0</v>
       </c>
+      <c r="E107" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -8030,6 +9641,9 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
+      <c r="E108" t="n">
+        <v>84609</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -8044,6 +9658,9 @@
       <c r="D109" t="n">
         <v>0</v>
       </c>
+      <c r="E109" t="n">
+        <v>56488</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -8058,6 +9675,9 @@
       <c r="D110" t="n">
         <v>0</v>
       </c>
+      <c r="E110" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -8072,6 +9692,9 @@
       <c r="D111" t="n">
         <v>0</v>
       </c>
+      <c r="E111" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -8086,6 +9709,9 @@
       <c r="D112" t="n">
         <v>0</v>
       </c>
+      <c r="E112" t="n">
+        <v>41837</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -8100,6 +9726,9 @@
       <c r="D113" t="n">
         <v>0</v>
       </c>
+      <c r="E113" t="n">
+        <v>12003</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -8114,6 +9743,9 @@
       <c r="D114" t="n">
         <v>0</v>
       </c>
+      <c r="E114" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -8128,6 +9760,9 @@
       <c r="D115" t="n">
         <v>0</v>
       </c>
+      <c r="E115" t="n">
+        <v>14534</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -8142,6 +9777,9 @@
       <c r="D116" t="n">
         <v>0</v>
       </c>
+      <c r="E116" t="n">
+        <v>23461</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -8156,6 +9794,9 @@
       <c r="D117" t="n">
         <v>0</v>
       </c>
+      <c r="E117" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -8170,6 +9811,9 @@
       <c r="D118" t="n">
         <v>0</v>
       </c>
+      <c r="E118" t="n">
+        <v>19736</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -8184,6 +9828,9 @@
       <c r="D119" t="n">
         <v>0</v>
       </c>
+      <c r="E119" t="n">
+        <v>110000</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -8198,6 +9845,9 @@
       <c r="D120" t="n">
         <v>0</v>
       </c>
+      <c r="E120" t="n">
+        <v>18200</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -8212,6 +9862,9 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
+      <c r="E121" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -8226,6 +9879,9 @@
       <c r="D122" t="n">
         <v>0</v>
       </c>
+      <c r="E122" t="n">
+        <v>100653</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -8240,6 +9896,9 @@
       <c r="D123" t="n">
         <v>0</v>
       </c>
+      <c r="E123" t="n">
+        <v>126025</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -8254,6 +9913,9 @@
       <c r="D124" t="n">
         <v>0</v>
       </c>
+      <c r="E124" t="n">
+        <v>25400</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -8268,6 +9930,9 @@
       <c r="D125" t="n">
         <v>0</v>
       </c>
+      <c r="E125" t="n">
+        <v>228650</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -8282,6 +9947,9 @@
       <c r="D126" t="n">
         <v>0</v>
       </c>
+      <c r="E126" t="n">
+        <v>90590</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -8296,6 +9964,9 @@
       <c r="D127" t="n">
         <v>0</v>
       </c>
+      <c r="E127" t="n">
+        <v>75506</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -8310,6 +9981,9 @@
       <c r="D128" t="n">
         <v>0</v>
       </c>
+      <c r="E128" t="n">
+        <v>509625</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -8324,6 +9998,9 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
+      <c r="E129" t="n">
+        <v>59800</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -8338,6 +10015,9 @@
       <c r="D130" t="n">
         <v>0</v>
       </c>
+      <c r="E130" t="n">
+        <v>62900</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -8352,6 +10032,9 @@
       <c r="D131" t="n">
         <v>0</v>
       </c>
+      <c r="E131" t="n">
+        <v>11839</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -8366,6 +10049,9 @@
       <c r="D132" t="n">
         <v>0</v>
       </c>
+      <c r="E132" t="n">
+        <v>79095</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -8380,6 +10066,9 @@
       <c r="D133" t="n">
         <v>0</v>
       </c>
+      <c r="E133" t="n">
+        <v>11028</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -8394,6 +10083,9 @@
       <c r="D134" t="n">
         <v>0</v>
       </c>
+      <c r="E134" t="n">
+        <v>10992</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -8408,6 +10100,9 @@
       <c r="D135" t="n">
         <v>0</v>
       </c>
+      <c r="E135" t="n">
+        <v>78738</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -8422,6 +10117,9 @@
       <c r="D136" t="n">
         <v>0</v>
       </c>
+      <c r="E136" t="n">
+        <v>43000</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -8436,6 +10134,9 @@
       <c r="D137" t="n">
         <v>0</v>
       </c>
+      <c r="E137" t="n">
+        <v>27500</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -8450,6 +10151,9 @@
       <c r="D138" t="n">
         <v>0</v>
       </c>
+      <c r="E138" t="n">
+        <v>15390</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -8464,6 +10168,9 @@
       <c r="D139" t="n">
         <v>0</v>
       </c>
+      <c r="E139" t="n">
+        <v>14700</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -8478,6 +10185,9 @@
       <c r="D140" t="n">
         <v>0</v>
       </c>
+      <c r="E140" t="n">
+        <v>24903</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -8492,6 +10202,9 @@
       <c r="D141" t="n">
         <v>0</v>
       </c>
+      <c r="E141" t="n">
+        <v>31800</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -8506,6 +10219,9 @@
       <c r="D142" t="n">
         <v>0</v>
       </c>
+      <c r="E142" t="n">
+        <v>16003</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8520,6 +10236,9 @@
       <c r="D143" t="n">
         <v>0</v>
       </c>
+      <c r="E143" t="n">
+        <v>17201</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8534,6 +10253,9 @@
       <c r="D144" t="n">
         <v>0</v>
       </c>
+      <c r="E144" t="n">
+        <v>40002</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8548,6 +10270,9 @@
       <c r="D145" t="n">
         <v>0</v>
       </c>
+      <c r="E145" t="n">
+        <v>2204645</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -8562,6 +10287,9 @@
       <c r="D146" t="n">
         <v>0</v>
       </c>
+      <c r="E146" t="n">
+        <v>12500</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -8575,6 +10303,9 @@
       </c>
       <c r="D147" t="n">
         <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>196745</v>
       </c>
     </row>
   </sheetData>
@@ -8604,6 +10335,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8618,6 +10352,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>14510</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8632,6 +10369,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>41500</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8646,6 +10386,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>29000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -8660,6 +10403,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>29832</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -8674,6 +10420,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>83370</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8688,6 +10437,7 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -8702,6 +10452,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>11418</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -8715,6 +10468,9 @@
       </c>
       <c r="D9" t="n">
         <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36003</v>
       </c>
     </row>
   </sheetData>
@@ -8744,6 +10500,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -8758,6 +10517,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -8772,6 +10534,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -8786,6 +10551,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -8800,6 +10568,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -8814,6 +10585,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>137533</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8828,6 +10602,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>29000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -8842,6 +10619,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -8856,6 +10636,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>75000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -8870,6 +10653,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>230000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -8884,6 +10670,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>25000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -8898,6 +10687,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8912,6 +10704,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -8926,6 +10721,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -8940,6 +10738,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>23776</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -8954,6 +10755,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -8968,6 +10772,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>26000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -8981,6 +10788,9 @@
       </c>
       <c r="D18" t="n">
         <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
@@ -9010,6 +10820,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9024,6 +10837,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9038,6 +10854,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9052,6 +10871,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>1954571</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9066,6 +10888,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9080,6 +10905,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -9094,6 +10922,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>240700</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9108,6 +10939,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -9122,6 +10956,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>140000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -9136,6 +10973,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -9150,6 +10990,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>55000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -9164,6 +11007,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>33000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -9178,6 +11024,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>1600000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -9192,6 +11041,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9206,6 +11058,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>500000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -9220,6 +11075,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>72000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -9234,6 +11092,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>18000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -9248,6 +11109,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>13014</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -9262,6 +11126,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>107670</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -9276,6 +11143,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -9290,6 +11160,9 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -9304,6 +11177,9 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" t="n">
+        <v>25232</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -9318,6 +11194,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="n">
+        <v>170000</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -9332,6 +11211,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="n">
+        <v>154000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -9346,6 +11228,9 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
+      <c r="E25" t="n">
+        <v>230000</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -9360,6 +11245,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -9374,6 +11262,9 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="n">
+        <v>120000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -9388,6 +11279,9 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="n">
+        <v>300000</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -9402,6 +11296,9 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
+      <c r="E29" t="n">
+        <v>190000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -9416,6 +11313,9 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="n">
+        <v>200000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -9430,6 +11330,9 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="n">
+        <v>40000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -9444,6 +11347,9 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -9458,6 +11364,9 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="n">
+        <v>250000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -9472,6 +11381,9 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
+      <c r="E34" t="n">
+        <v>49011</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -9486,6 +11398,9 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
+      <c r="E35" t="n">
+        <v>87000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -9500,6 +11415,9 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -9514,6 +11432,9 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -9528,6 +11449,9 @@
       <c r="D38" t="n">
         <v>0</v>
       </c>
+      <c r="E38" t="n">
+        <v>105000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -9542,6 +11466,9 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="n">
+        <v>27000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -9556,6 +11483,9 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -9570,6 +11500,9 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="n">
+        <v>75135</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -9584,6 +11517,9 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
+      <c r="E42" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -9598,6 +11534,9 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="n">
+        <v>15000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -9612,6 +11551,9 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="n">
+        <v>11000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -9626,6 +11568,9 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="n">
+        <v>10500</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -9640,6 +11585,9 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="n">
+        <v>35000</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -9654,6 +11602,9 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
+      <c r="E47" t="n">
+        <v>1200250</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -9668,6 +11619,9 @@
       <c r="D48" t="n">
         <v>0</v>
       </c>
+      <c r="E48" t="n">
+        <v>256000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -9682,6 +11636,9 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
+      <c r="E49" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9696,6 +11653,9 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
+      <c r="E50" t="n">
+        <v>24393</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9710,6 +11670,9 @@
       <c r="D51" t="n">
         <v>0</v>
       </c>
+      <c r="E51" t="n">
+        <v>90000</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9724,6 +11687,9 @@
       <c r="D52" t="n">
         <v>0</v>
       </c>
+      <c r="E52" t="n">
+        <v>21951</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9738,6 +11704,9 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
+      <c r="E53" t="n">
+        <v>10500</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9752,6 +11721,9 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
+      <c r="E54" t="n">
+        <v>17886</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -9766,6 +11738,9 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
+      <c r="E55" t="n">
+        <v>18005</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -9779,6 +11754,9 @@
       </c>
       <c r="D56" t="n">
         <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -9808,6 +11786,9 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -9822,6 +11803,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
+      <c r="E2" t="n">
+        <v>47714</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -9836,6 +11820,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>658331</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -9850,6 +11837,9 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>450012</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -9864,6 +11854,9 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>80000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -9878,6 +11871,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>50029</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -9892,6 +11888,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>180766</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9906,6 +11905,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="n">
+        <v>92701</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -9920,6 +11922,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>109257</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -9934,6 +11939,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>147405</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -9948,6 +11956,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -9962,6 +11973,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>11182</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -9976,6 +11990,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>376000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -9990,6 +12007,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -10004,6 +12024,9 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>1800505</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -10018,6 +12041,9 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>30000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10032,6 +12058,9 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -10045,6 +12074,9 @@
       </c>
       <c r="D18" t="n">
         <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17912</v>
       </c>
     </row>
   </sheetData>
